--- a/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
+++ b/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\BSoAIGtAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\indst\BSoAIGtAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B99D54-DE61-4C73-BDA7-CF157BE5B1EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="44595" yWindow="570" windowWidth="22530" windowHeight="13575" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BSoAIGtAP" sheetId="3" r:id="rId3"/>
+    <sheet name="TX Data" sheetId="4" r:id="rId3"/>
+    <sheet name="BSoAIGtAP" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>Source:</t>
   </si>
@@ -197,13 +207,122 @@
   </si>
   <si>
     <t>(dimensionless)</t>
+  </si>
+  <si>
+    <t>*in original EPS says 3.32, but the USDA source is 3.22</t>
+  </si>
+  <si>
+    <t>*why no price for oats?</t>
+  </si>
+  <si>
+    <t>USDA Long-Term Projections, February 2020 (NATIONAL)</t>
+  </si>
+  <si>
+    <t>USDA Agricultural Projections to 2029</t>
+  </si>
+  <si>
+    <t>https://www.usda.gov/oce/commodity/projections/USDA_Agricultural_Projections_to_2029.pdf</t>
+  </si>
+  <si>
+    <t>Pages 30-39, Tables 5-16</t>
+  </si>
+  <si>
+    <t>livestock, poultry, and their products</t>
+  </si>
+  <si>
+    <t>Table 2, Texas p9</t>
+  </si>
+  <si>
+    <t>Table 1, Texas p7</t>
+  </si>
+  <si>
+    <t>2017 Census of Agriculture, State Level Data: Texas</t>
+  </si>
+  <si>
+    <t>https://www.nass.usda.gov/Publications/AgCensus/2017/Full_Report/Volume_1,_Chapter_1_State_Level/Texas/</t>
+  </si>
+  <si>
+    <t>Tables 1, 2</t>
+  </si>
+  <si>
+    <t>NOTES FOR TX UPDATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used TX specific agricultural data to recreate and update (where possible) the original </t>
+  </si>
+  <si>
+    <t>Share of Agriculture Industry Contributing to Animals for TX</t>
+  </si>
+  <si>
+    <t>Sales of Crops, Animal Products, and Total for Texas</t>
+  </si>
+  <si>
+    <t>value of food sold directly to consumers</t>
+  </si>
+  <si>
+    <t>value of food sold directly to retail markets, institutions, and food hubs for local or regionally branded products</t>
+  </si>
+  <si>
+    <t>value of processed or value-added agricultural products sold</t>
+  </si>
+  <si>
+    <t>https://www.nass.usda.gov/Publications/AgCensus/2017/Full_Report/Volume_1,_Chapter_1_State_Level/Texas/st48_1_0002_0002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.nass.usda.gov/Publications/AgCensus/2017/Full_Report/Volume_1,_Chapter_1_State_Level/Texas/st48_1_0048_0048.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crop production total </t>
+  </si>
+  <si>
+    <t>crop production crops</t>
+  </si>
+  <si>
+    <t>crop production livestock, poultry, and their products</t>
+  </si>
+  <si>
+    <t>Market value of agricultural products sold</t>
+  </si>
+  <si>
+    <t>Portion of TX crops that go to animal uses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Department of Agriculture </t>
+  </si>
+  <si>
+    <t>Table 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculation methods. Couldn't find analagous crop-specific data on split between animal and </t>
+  </si>
+  <si>
+    <t>non-animal uses, but in the state-level Ag census data there is an overall split of 'market value of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commodities sold' by "crops" and "livestock, poultry, and their products" that was used in place of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the bottoms-up approach used by the national EPS. This value was checked against a second method </t>
+  </si>
+  <si>
+    <t>Texas Census of Agriculture 2017, Tables 1 and 2</t>
+  </si>
+  <si>
+    <t>Texas Census of Agriculture 2017, Table 48</t>
+  </si>
+  <si>
+    <t>*this seems to match with above direct estimate, might be larger because of double-counting of value added products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +349,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,7 +409,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -293,10 +427,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -578,152 +734,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="68.73046875" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E5" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E7" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E12" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="E17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="E19" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="E21" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{AF63CE27-D87B-7B48-BA28-0837C851EA5B}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{A34B8223-D29E-0B4D-836D-759248D4C431}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{14EE3A92-EF52-8C42-85CD-BED86FFDF27A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.86328125" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" customWidth="1"/>
-    <col min="4" max="4" width="25.265625" customWidth="1"/>
+    <col min="1" max="1" width="31.796875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.1328125" customWidth="1"/>
-    <col min="6" max="6" width="23.86328125" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -801,7 +1049,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -859,12 +1107,12 @@
         <f t="shared" ref="D16:D26" si="0">B16/C16</f>
         <v>0.62893081761006286</v>
       </c>
-      <c r="E16">
-        <v>3.32</v>
+      <c r="E16" s="14">
+        <v>3.22</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" ref="F16:F25" si="1">C16*E16</f>
-        <v>527.88</v>
+        <v>511.98</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -903,6 +1151,7 @@
         <f t="shared" si="0"/>
         <v>0.46575342465753422</v>
       </c>
+      <c r="E18" s="14"/>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1090,19 +1339,29 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D27" s="6"/>
+      <c r="E27" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="6"/>
+      <c r="E28" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <f>SUMPRODUCT(D15:D26,F15:F26)/SUM(F15:F26)</f>
-        <v>0.24377594409350131</v>
+        <v>0.24372681910373775</v>
       </c>
       <c r="D29" s="6"/>
+      <c r="G29" s="10">
+        <f>SUM(F15:F26)</f>
+        <v>124660.84</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D30" s="6"/>
@@ -1114,9 +1373,9 @@
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <f>(B5/B3)+A29*(B4/B3)</f>
-        <v>0.6232789702925996</v>
+        <v>0.62325449815820555</v>
       </c>
     </row>
   </sheetData>
@@ -1125,17 +1384,641 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97527B41-4E09-D546-BBCE-3034BA245B11}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="31.796875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" customWidth="1"/>
+    <col min="7" max="7" width="21.796875" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <f>388522695000/10^6</f>
+        <v>388522.69500000001</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6894.3069999999998</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <f>193546699000/10^6</f>
+        <v>193546.69899999999</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>18029.734</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <f>194975996000/10^6</f>
+        <v>194975.99600000001</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>F4+F3</f>
+        <v>24924.041000000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9">
+        <v>6877.2860000000001</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>6588.5919999999996</v>
+      </c>
+      <c r="G10">
+        <f>F10/F9</f>
+        <v>0.95802210348675332</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <v>288.69400000000002</v>
+      </c>
+      <c r="G11">
+        <f>F11/F9</f>
+        <v>4.1977896513246654E-2</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="18">
+        <v>5618</v>
+      </c>
+      <c r="C16" s="18">
+        <v>12409</v>
+      </c>
+      <c r="D16" s="28">
+        <f>B16/C16</f>
+        <v>0.45273591747924891</v>
+      </c>
+      <c r="E16" s="18">
+        <v>3.61</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" ref="F16:F26" si="0">C16*E16</f>
+        <v>44796.49</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="18">
+        <v>138</v>
+      </c>
+      <c r="C17" s="18">
+        <v>244</v>
+      </c>
+      <c r="D17" s="28">
+        <f>B17/C17</f>
+        <v>0.56557377049180324</v>
+      </c>
+      <c r="E17" s="18">
+        <v>3.26</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
+        <v>795.43999999999994</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18">
+        <v>162</v>
+      </c>
+      <c r="D18" s="28">
+        <f>B18/C18</f>
+        <v>4.9382716049382713E-2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>4.62</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>748.44</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="18">
+        <v>66</v>
+      </c>
+      <c r="C19" s="18">
+        <v>144</v>
+      </c>
+      <c r="D19" s="28">
+        <f>B19/C19</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2.66</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="0"/>
+        <v>383.04</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="18">
+        <v>90</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1103</v>
+      </c>
+      <c r="D20" s="28">
+        <f>B20/C20</f>
+        <v>8.1595648232094295E-2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>5.16</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="0"/>
+        <v>5691.4800000000005</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="18">
+        <v>22950</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="0"/>
+        <v>6494.8499999999995</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="18">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18">
+        <v>308</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="0"/>
+        <v>11149.6</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="18">
+        <v>0</v>
+      </c>
+      <c r="C23" s="18">
+        <v>144.1</v>
+      </c>
+      <c r="D23" s="28">
+        <f>B23/C23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>12</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>1729.1999999999998</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="18">
+        <v>0</v>
+      </c>
+      <c r="C24" s="18">
+        <v>10</v>
+      </c>
+      <c r="D24" s="28">
+        <f>B24/C24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <v>270</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="18">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18">
+        <v>33.1</v>
+      </c>
+      <c r="D25" s="28">
+        <f>B25/C25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>35.5</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="0"/>
+        <v>1175.05</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>32.9</v>
+      </c>
+      <c r="D26" s="28">
+        <f>B26/C26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>33.4</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="0"/>
+        <v>1098.8599999999999</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="18">
+        <v>0</v>
+      </c>
+      <c r="C27" s="18">
+        <v>185945</v>
+      </c>
+      <c r="D27" s="28">
+        <f>B27/C27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="18">
+        <v>49638</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="12">
+        <f>G11</f>
+        <v>4.1977896513246654E-2</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="13">
+        <f>(F4/F5)+A30*(F3/F5)</f>
+        <v>0.73499889146292741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E40" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E41" s="23">
+        <v>45584000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E42" s="23">
+        <v>221465000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E43" s="23">
+        <v>89613000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E45">
+        <f>SUM(E41:E43)/1000000</f>
+        <v>356.66199999999998</v>
+      </c>
+      <c r="F45" s="24">
+        <f>E45/F3</f>
+        <v>5.1732828259606074E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E40" r:id="rId1" xr:uid="{D3471DDE-520E-8A4D-8382-01C7C279B041}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" customWidth="1"/>
@@ -1249,137 +2132,137 @@
       <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="11">
-        <f>Data!A33</f>
-        <v>0.6232789702925996</v>
+      <c r="B2" s="22">
+        <f>'TX Data'!A34</f>
+        <v>0.73499889146292741</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AH2" si="0">$B2</f>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>0.6232789702925996</v>
+        <v>0.73499889146292741</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
+++ b/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\indst\BSoAIGtAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\BSoAIGtAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B99D54-DE61-4C73-BDA7-CF157BE5B1EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44595" yWindow="570" windowWidth="22530" windowHeight="13575" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="TX Data" sheetId="4" r:id="rId3"/>
-    <sheet name="BSoAIGtAP" sheetId="3" r:id="rId4"/>
+    <sheet name="BSoAIGtAP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Source:</t>
   </si>
@@ -207,122 +197,13 @@
   </si>
   <si>
     <t>(dimensionless)</t>
-  </si>
-  <si>
-    <t>*in original EPS says 3.32, but the USDA source is 3.22</t>
-  </si>
-  <si>
-    <t>*why no price for oats?</t>
-  </si>
-  <si>
-    <t>USDA Long-Term Projections, February 2020 (NATIONAL)</t>
-  </si>
-  <si>
-    <t>USDA Agricultural Projections to 2029</t>
-  </si>
-  <si>
-    <t>https://www.usda.gov/oce/commodity/projections/USDA_Agricultural_Projections_to_2029.pdf</t>
-  </si>
-  <si>
-    <t>Pages 30-39, Tables 5-16</t>
-  </si>
-  <si>
-    <t>livestock, poultry, and their products</t>
-  </si>
-  <si>
-    <t>Table 2, Texas p9</t>
-  </si>
-  <si>
-    <t>Table 1, Texas p7</t>
-  </si>
-  <si>
-    <t>2017 Census of Agriculture, State Level Data: Texas</t>
-  </si>
-  <si>
-    <t>https://www.nass.usda.gov/Publications/AgCensus/2017/Full_Report/Volume_1,_Chapter_1_State_Level/Texas/</t>
-  </si>
-  <si>
-    <t>Tables 1, 2</t>
-  </si>
-  <si>
-    <t>NOTES FOR TX UPDATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used TX specific agricultural data to recreate and update (where possible) the original </t>
-  </si>
-  <si>
-    <t>Share of Agriculture Industry Contributing to Animals for TX</t>
-  </si>
-  <si>
-    <t>Sales of Crops, Animal Products, and Total for Texas</t>
-  </si>
-  <si>
-    <t>value of food sold directly to consumers</t>
-  </si>
-  <si>
-    <t>value of food sold directly to retail markets, institutions, and food hubs for local or regionally branded products</t>
-  </si>
-  <si>
-    <t>value of processed or value-added agricultural products sold</t>
-  </si>
-  <si>
-    <t>https://www.nass.usda.gov/Publications/AgCensus/2017/Full_Report/Volume_1,_Chapter_1_State_Level/Texas/st48_1_0002_0002.pdf</t>
-  </si>
-  <si>
-    <t>https://www.nass.usda.gov/Publications/AgCensus/2017/Full_Report/Volume_1,_Chapter_1_State_Level/Texas/st48_1_0048_0048.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crop production total </t>
-  </si>
-  <si>
-    <t>crop production crops</t>
-  </si>
-  <si>
-    <t>crop production livestock, poultry, and their products</t>
-  </si>
-  <si>
-    <t>Market value of agricultural products sold</t>
-  </si>
-  <si>
-    <t>Portion of TX crops that go to animal uses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Department of Agriculture </t>
-  </si>
-  <si>
-    <t>Table 48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation methods. Couldn't find analagous crop-specific data on split between animal and </t>
-  </si>
-  <si>
-    <t>non-animal uses, but in the state-level Ag census data there is an overall split of 'market value of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commodities sold' by "crops" and "livestock, poultry, and their products" that was used in place of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the bottoms-up approach used by the national EPS. This value was checked against a second method </t>
-  </si>
-  <si>
-    <t>Texas Census of Agriculture 2017, Tables 1 and 2</t>
-  </si>
-  <si>
-    <t>Texas Census of Agriculture 2017, Table 48</t>
-  </si>
-  <si>
-    <t>*this seems to match with above direct estimate, might be larger because of double-counting of value added products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,21 +230,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,7 +275,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -427,32 +293,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -734,244 +578,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
-    <col min="5" max="5" width="75" customWidth="1"/>
+    <col min="2" max="2" width="68.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>2017</v>
       </c>
-      <c r="E5" s="4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>2019</v>
       </c>
-      <c r="E12" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E14" r:id="rId3" xr:uid="{AF63CE27-D87B-7B48-BA28-0837C851EA5B}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{A34B8223-D29E-0B4D-836D-759248D4C431}"/>
-    <hyperlink ref="E21" r:id="rId5" xr:uid="{14EE3A92-EF52-8C42-85CD-BED86FFDF27A}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.796875" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.86328125" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="4" max="4" width="25.265625" customWidth="1"/>
     <col min="5" max="5" width="21.1328125" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" customWidth="1"/>
+    <col min="6" max="6" width="23.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1049,7 +801,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1107,12 +859,12 @@
         <f t="shared" ref="D16:D26" si="0">B16/C16</f>
         <v>0.62893081761006286</v>
       </c>
-      <c r="E16" s="14">
-        <v>3.22</v>
+      <c r="E16">
+        <v>3.32</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" ref="F16:F25" si="1">C16*E16</f>
-        <v>511.98</v>
+        <v>527.88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1151,7 +903,6 @@
         <f t="shared" si="0"/>
         <v>0.46575342465753422</v>
       </c>
-      <c r="E18" s="14"/>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1339,29 +1090,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D27" s="6"/>
-      <c r="E27" s="15" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="15" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <f>SUMPRODUCT(D15:D26,F15:F26)/SUM(F15:F26)</f>
-        <v>0.24372681910373775</v>
+        <v>0.24377594409350131</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="G29" s="10">
-        <f>SUM(F15:F26)</f>
-        <v>124660.84</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D30" s="6"/>
@@ -1373,9 +1114,9 @@
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="13">
+      <c r="A33" s="14">
         <f>(B5/B3)+A29*(B4/B3)</f>
-        <v>0.62325449815820555</v>
+        <v>0.6232789702925996</v>
       </c>
     </row>
   </sheetData>
@@ -1384,641 +1125,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97527B41-4E09-D546-BBCE-3034BA245B11}">
-  <dimension ref="A1:H46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="31.796875" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" customWidth="1"/>
-    <col min="7" max="7" width="21.796875" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21">
-        <f>388522695000/10^6</f>
-        <v>388522.69500000001</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>6894.3069999999998</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="21">
-        <f>193546699000/10^6</f>
-        <v>193546.69899999999</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4">
-        <v>18029.734</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="21">
-        <f>194975996000/10^6</f>
-        <v>194975.99600000001</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <f>F4+F3</f>
-        <v>24924.041000000001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9">
-        <v>6877.2860000000001</v>
-      </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10">
-        <v>6588.5919999999996</v>
-      </c>
-      <c r="G10">
-        <f>F10/F9</f>
-        <v>0.95802210348675332</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11">
-        <v>288.69400000000002</v>
-      </c>
-      <c r="G11">
-        <f>F11/F9</f>
-        <v>4.1977896513246654E-2</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="18">
-        <v>5618</v>
-      </c>
-      <c r="C16" s="18">
-        <v>12409</v>
-      </c>
-      <c r="D16" s="28">
-        <f>B16/C16</f>
-        <v>0.45273591747924891</v>
-      </c>
-      <c r="E16" s="18">
-        <v>3.61</v>
-      </c>
-      <c r="F16" s="21">
-        <f t="shared" ref="F16:F26" si="0">C16*E16</f>
-        <v>44796.49</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="18">
-        <v>138</v>
-      </c>
-      <c r="C17" s="18">
-        <v>244</v>
-      </c>
-      <c r="D17" s="28">
-        <f>B17/C17</f>
-        <v>0.56557377049180324</v>
-      </c>
-      <c r="E17" s="18">
-        <v>3.26</v>
-      </c>
-      <c r="F17" s="21">
-        <f t="shared" si="0"/>
-        <v>795.43999999999994</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="18">
-        <v>8</v>
-      </c>
-      <c r="C18" s="18">
-        <v>162</v>
-      </c>
-      <c r="D18" s="28">
-        <f>B18/C18</f>
-        <v>4.9382716049382713E-2</v>
-      </c>
-      <c r="E18" s="18">
-        <v>4.62</v>
-      </c>
-      <c r="F18" s="21">
-        <f t="shared" si="0"/>
-        <v>748.44</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="18">
-        <v>66</v>
-      </c>
-      <c r="C19" s="18">
-        <v>144</v>
-      </c>
-      <c r="D19" s="28">
-        <f>B19/C19</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E19" s="18">
-        <v>2.66</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="0"/>
-        <v>383.04</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="18">
-        <v>90</v>
-      </c>
-      <c r="C20" s="18">
-        <v>1103</v>
-      </c>
-      <c r="D20" s="28">
-        <f>B20/C20</f>
-        <v>8.1595648232094295E-2</v>
-      </c>
-      <c r="E20" s="18">
-        <v>5.16</v>
-      </c>
-      <c r="F20" s="21">
-        <f t="shared" si="0"/>
-        <v>5691.4800000000005</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="18">
-        <v>22950</v>
-      </c>
-      <c r="D21" s="28">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="F21" s="18">
-        <f t="shared" si="0"/>
-        <v>6494.8499999999995</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="18">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="D22" s="28">
-        <v>1</v>
-      </c>
-      <c r="E22" s="18">
-        <v>308</v>
-      </c>
-      <c r="F22" s="21">
-        <f t="shared" si="0"/>
-        <v>11149.6</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="18">
-        <v>0</v>
-      </c>
-      <c r="C23" s="18">
-        <v>144.1</v>
-      </c>
-      <c r="D23" s="28">
-        <f>B23/C23</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
-        <v>12</v>
-      </c>
-      <c r="F23" s="21">
-        <f t="shared" si="0"/>
-        <v>1729.1999999999998</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="18">
-        <v>0</v>
-      </c>
-      <c r="C24" s="18">
-        <v>10</v>
-      </c>
-      <c r="D24" s="28">
-        <f>B24/C24</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="18">
-        <v>270</v>
-      </c>
-      <c r="F24" s="21">
-        <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="18">
-        <v>0</v>
-      </c>
-      <c r="C25" s="18">
-        <v>33.1</v>
-      </c>
-      <c r="D25" s="28">
-        <f>B25/C25</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="18">
-        <v>35.5</v>
-      </c>
-      <c r="F25" s="21">
-        <f t="shared" si="0"/>
-        <v>1175.05</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="18">
-        <v>0</v>
-      </c>
-      <c r="C26" s="18">
-        <v>32.9</v>
-      </c>
-      <c r="D26" s="28">
-        <f>B26/C26</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
-        <v>33.4</v>
-      </c>
-      <c r="F26" s="21">
-        <f t="shared" si="0"/>
-        <v>1098.8599999999999</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="18">
-        <v>0</v>
-      </c>
-      <c r="C27" s="18">
-        <v>185945</v>
-      </c>
-      <c r="D27" s="28">
-        <f>B27/C27</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="18">
-        <v>49638</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="12">
-        <f>G11</f>
-        <v>4.1977896513246654E-2</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D31" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="13">
-        <f>(F4/F5)+A30*(F3/F5)</f>
-        <v>0.73499889146292741</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E40" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E41" s="23">
-        <v>45584000</v>
-      </c>
-      <c r="F41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E42" s="23">
-        <v>221465000</v>
-      </c>
-      <c r="F42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E43" s="23">
-        <v>89613000</v>
-      </c>
-      <c r="F43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E45">
-        <f>SUM(E41:E43)/1000000</f>
-        <v>356.66199999999998</v>
-      </c>
-      <c r="F45" s="24">
-        <f>E45/F3</f>
-        <v>5.1732828259606074E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E40" r:id="rId1" xr:uid="{D3471DDE-520E-8A4D-8382-01C7C279B041}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" customWidth="1"/>
@@ -2132,137 +1249,137 @@
       <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="22">
-        <f>'TX Data'!A34</f>
-        <v>0.73499889146292741</v>
+      <c r="B2" s="11">
+        <f>Data!A33</f>
+        <v>0.6232789702925996</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AH2" si="0">$B2</f>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>0.73499889146292741</v>
+        <v>0.6232789702925996</v>
       </c>
     </row>
   </sheetData>
